--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_DC_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_DC_speed_coherence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,21 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -462,16 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6891791224479675</v>
+        <v>3.422586441040039</v>
       </c>
       <c r="C2" t="n">
-        <v>1.121190428733826</v>
+        <v>3.487752914428711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6970212459564209</v>
+        <v>3.315147161483765</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6577777862548828</v>
+        <v>2.8252272605896</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.056530714035034</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.066363573074341</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.27842116355896</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8682073710569694</v>
+        <v>0.8756222471423533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9449534444581895</v>
+        <v>0.8481924165500684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.886352186507367</v>
+        <v>0.8265151539269615</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7533010178142123</v>
+        <v>0.8129263777624477</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8400445921080453</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7832007299770009</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.830948343402461</v>
       </c>
     </row>
   </sheetData>

--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_DC_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_DC_speed_coherence.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.422586441040039</v>
+        <v>5.888991832733154</v>
       </c>
       <c r="C2" t="n">
-        <v>3.487752914428711</v>
+        <v>7.901891708374023</v>
       </c>
       <c r="D2" t="n">
-        <v>3.315147161483765</v>
+        <v>14.20784568786621</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8252272605896</v>
+        <v>7.048484802246094</v>
       </c>
       <c r="F2" t="n">
-        <v>3.056530714035034</v>
+        <v>7.284347534179688</v>
       </c>
       <c r="G2" t="n">
-        <v>3.066363573074341</v>
+        <v>4.416557312011719</v>
       </c>
       <c r="H2" t="n">
-        <v>3.27842116355896</v>
+        <v>5.690701484680176</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8756222471423533</v>
+        <v>0.8461046711571755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8481924165500684</v>
+        <v>0.8008773488168781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8265151539269615</v>
+        <v>0.9530844395331914</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8129263777624477</v>
+        <v>0.8574513957355961</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8400445921080453</v>
+        <v>0.8665463911450427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7832007299770009</v>
+        <v>0.7549095481145577</v>
       </c>
       <c r="H3" t="n">
-        <v>0.830948343402461</v>
+        <v>0.8065883391781857</v>
       </c>
     </row>
   </sheetData>
